--- a/Team-Data/2014-15/3-26-2014-15.xlsx
+++ b/Team-Data/2014-15/3-26-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -780,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
@@ -804,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -974,22 +1041,22 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1126,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1153,10 +1220,10 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1329,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1684,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1729,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1785,7 +1852,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N8" t="n">
         <v>0.353</v>
@@ -1797,19 +1864,19 @@
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.9</v>
@@ -1821,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
         <v>19.8</v>
@@ -1833,22 +1900,22 @@
         <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1869,10 +1936,10 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
@@ -1881,10 +1948,10 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2057,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2451,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2516,16 +2583,16 @@
         <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
@@ -2546,25 +2613,25 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
         <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2624,16 +2691,16 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.431</v>
+        <v>0.437</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.762</v>
@@ -2713,19 +2780,19 @@
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
         <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
@@ -2734,37 +2801,37 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21.1</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AB13" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2773,19 +2840,19 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2794,13 +2861,13 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2812,10 +2879,10 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2946,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,13 +3055,13 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.275</v>
+        <v>0.271</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3143,13 +3210,13 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,7 +3225,7 @@
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3176,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3355,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,40 +3663,40 @@
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
         <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V18" t="n">
         <v>16.8</v>
@@ -3644,22 +3711,22 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3689,22 +3756,22 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>18</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3716,16 +3783,16 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3907,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,67 +4027,67 @@
         <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
         <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4038,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4050,16 +4117,16 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4396,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4438,7 +4505,7 @@
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4450,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="n">
-        <v>0.306</v>
+        <v>0.301</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.351</v>
@@ -4530,13 +4597,13 @@
         <v>0.729</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
@@ -4545,28 +4612,28 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4605,34 +4672,34 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>20</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>8</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4966,10 +5033,10 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.629</v>
+        <v>0.634</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.776</v>
@@ -5443,19 +5510,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5473,19 +5540,19 @@
         <v>102.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5500,19 +5567,19 @@
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5524,13 +5591,13 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5551,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5867,7 +5934,7 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
@@ -5900,7 +5967,7 @@
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6034,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2014-15</t>
+          <t>2015-03-26</t>
         </is>
       </c>
     </row>
